--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
@@ -375,20 +375,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,29 +402,23 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1301,7 +1301,7 @@
   <dimension ref="A3:O88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1332,7 +1332,7 @@
       <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="11"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1342,18 +1342,18 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B4" s="24">
+      <c r="B4" s="13">
         <v>9999999999</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="11"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1393,7 +1393,7 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1428,22 +1428,22 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F8" s="21"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H8" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I8" s="21"/>
+      <c r="H8" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="3">
         <v>9999999999</v>
       </c>
@@ -1461,7 +1461,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B9" s="26"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1494,22 +1494,22 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H10" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I10" s="21"/>
+      <c r="H10" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="3">
         <v>9999999999</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B11" s="26"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1560,22 +1560,22 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H12" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I12" s="21"/>
+      <c r="H12" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="3">
         <v>9999999999</v>
       </c>
@@ -1593,7 +1593,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B13" s="26"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1626,22 +1626,22 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H14" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I14" s="18"/>
+      <c r="H14" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="3">
         <v>9999999999</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B15" s="26"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1692,22 +1692,22 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H16" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I16" s="18"/>
+      <c r="H16" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I16" s="20"/>
       <c r="J16" s="3">
         <v>9999999999</v>
       </c>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="17" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="18" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1761,22 +1761,22 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B19" s="26"/>
-      <c r="C19" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F19" s="21"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H19" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I19" s="21"/>
+      <c r="H19" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="3">
         <v>9999999999</v>
       </c>
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B20" s="26"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
@@ -1827,22 +1827,22 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B21" s="26"/>
-      <c r="C21" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H21" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I21" s="21"/>
+      <c r="H21" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I21" s="15"/>
       <c r="J21" s="3">
         <v>9999999999</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B22" s="26"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
@@ -1893,22 +1893,22 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="G23" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H23" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I23" s="21"/>
+      <c r="H23" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I23" s="15"/>
       <c r="J23" s="3">
         <v>9999999999</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B24" s="26"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
@@ -1959,22 +1959,22 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H25" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I25" s="18"/>
+      <c r="H25" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I25" s="20"/>
       <c r="J25" s="3">
         <v>9999999999</v>
       </c>
@@ -1992,7 +1992,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B26" s="26"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
@@ -2025,22 +2025,22 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H27" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="H27" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I27" s="20"/>
       <c r="J27" s="3">
         <v>9999999999</v>
       </c>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="28" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="29" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2094,22 +2094,22 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="7" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B31" s="26"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="10" t="s">
         <v>9</v>
       </c>
@@ -2160,22 +2160,22 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="7" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B33" s="26"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="10" t="s">
         <v>9</v>
       </c>
@@ -2226,22 +2226,22 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="7" t="s">
         <v>12</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B35" s="26"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
@@ -2292,22 +2292,22 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="7" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B37" s="26"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
@@ -2358,22 +2358,22 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B38" s="25"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="7" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -2426,22 +2426,22 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B40" s="25"/>
-      <c r="C40" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F40" s="20"/>
       <c r="G40" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H40" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I40" s="18"/>
+      <c r="H40" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I40" s="20"/>
       <c r="J40" s="3">
         <v>9999999999</v>
       </c>
@@ -2459,10 +2459,10 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="9.75" customHeight="1">
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="5" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="F47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="11"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2516,18 +2516,18 @@
       <c r="N47" s="4"/>
     </row>
     <row r="48" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B48" s="24">
+      <c r="B48" s="13">
         <v>9999999999</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="23"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="11"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2567,7 +2567,7 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -2602,22 +2602,22 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F52" s="21"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F52" s="15"/>
       <c r="G52" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H52" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I52" s="21"/>
+      <c r="H52" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I52" s="15"/>
       <c r="J52" s="3">
         <v>9999999999</v>
       </c>
@@ -2635,7 +2635,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B53" s="19"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="10" t="s">
         <v>9</v>
       </c>
@@ -2668,22 +2668,22 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F54" s="21"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F54" s="15"/>
       <c r="G54" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H54" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I54" s="21"/>
+      <c r="H54" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I54" s="15"/>
       <c r="J54" s="3">
         <v>9999999999</v>
       </c>
@@ -2701,7 +2701,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B55" s="19"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="10" t="s">
         <v>9</v>
       </c>
@@ -2734,22 +2734,22 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F56" s="21"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F56" s="15"/>
       <c r="G56" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H56" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I56" s="21"/>
+      <c r="H56" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I56" s="15"/>
       <c r="J56" s="3">
         <v>9999999999</v>
       </c>
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B57" s="19"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="10" t="s">
         <v>9</v>
       </c>
@@ -2800,22 +2800,22 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F58" s="18"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F58" s="20"/>
       <c r="G58" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H58" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I58" s="18"/>
+      <c r="H58" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I58" s="20"/>
       <c r="J58" s="3">
         <v>9999999999</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B59" s="19"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="10" t="s">
         <v>9</v>
       </c>
@@ -2866,22 +2866,22 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B60" s="16"/>
-      <c r="C60" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F60" s="18"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F60" s="20"/>
       <c r="G60" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H60" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I60" s="18"/>
+      <c r="H60" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I60" s="20"/>
       <c r="J60" s="3">
         <v>9999999999</v>
       </c>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="61" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="62" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -2935,22 +2935,22 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F63" s="21"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D63" s="15"/>
+      <c r="E63" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F63" s="15"/>
       <c r="G63" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H63" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I63" s="21"/>
+      <c r="H63" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I63" s="15"/>
       <c r="J63" s="3">
         <v>9999999999</v>
       </c>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="64" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B64" s="19"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="10" t="s">
         <v>9</v>
       </c>
@@ -3001,22 +3001,22 @@
       </c>
     </row>
     <row r="65" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F65" s="21"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F65" s="15"/>
       <c r="G65" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H65" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I65" s="21"/>
+      <c r="H65" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I65" s="15"/>
       <c r="J65" s="3">
         <v>9999999999</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B66" s="19"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="10" t="s">
         <v>9</v>
       </c>
@@ -3067,22 +3067,22 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="F67" s="21"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="F67" s="15"/>
       <c r="G67" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H67" s="20">
-        <v>9999999999</v>
-      </c>
-      <c r="I67" s="21"/>
+      <c r="H67" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="I67" s="15"/>
       <c r="J67" s="3">
         <v>9999999999</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B68" s="19"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="10" t="s">
         <v>9</v>
       </c>
@@ -3133,22 +3133,22 @@
       </c>
     </row>
     <row r="69" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B69" s="19"/>
-      <c r="C69" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F69" s="18"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F69" s="20"/>
       <c r="G69" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H69" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I69" s="18"/>
+      <c r="H69" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I69" s="20"/>
       <c r="J69" s="3">
         <v>9999999999</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="70" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B70" s="19"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="10" t="s">
         <v>9</v>
       </c>
@@ -3199,22 +3199,22 @@
       </c>
     </row>
     <row r="71" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F71" s="18"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F71" s="20"/>
       <c r="G71" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H71" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I71" s="18"/>
+      <c r="H71" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I71" s="20"/>
       <c r="J71" s="3">
         <v>9999999999</v>
       </c>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="72" spans="2:14" ht="8.1" customHeight="1"/>
     <row r="73" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -3268,22 +3268,22 @@
       </c>
     </row>
     <row r="74" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B74" s="19"/>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="25"/>
+      <c r="C74" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="13"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="7" t="s">
         <v>12</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B75" s="19"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="10" t="s">
         <v>9</v>
       </c>
@@ -3334,22 +3334,22 @@
       </c>
     </row>
     <row r="76" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B76" s="19"/>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="25"/>
+      <c r="C76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="13"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="13"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="7" t="s">
         <v>12</v>
       </c>
@@ -3367,7 +3367,7 @@
       </c>
     </row>
     <row r="77" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B77" s="19"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="10" t="s">
         <v>9</v>
       </c>
@@ -3400,22 +3400,22 @@
       </c>
     </row>
     <row r="78" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B78" s="19"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="13"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I78" s="13"/>
+      <c r="I78" s="22"/>
       <c r="J78" s="7" t="s">
         <v>12</v>
       </c>
@@ -3433,7 +3433,7 @@
       </c>
     </row>
     <row r="79" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B79" s="19"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="10" t="s">
         <v>9</v>
       </c>
@@ -3466,22 +3466,22 @@
       </c>
     </row>
     <row r="80" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B80" s="19"/>
-      <c r="C80" s="14" t="s">
+      <c r="B80" s="25"/>
+      <c r="C80" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="13"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="13"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="7" t="s">
         <v>12</v>
       </c>
@@ -3499,7 +3499,7 @@
       </c>
     </row>
     <row r="81" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B81" s="19"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="10" t="s">
         <v>9</v>
       </c>
@@ -3532,22 +3532,22 @@
       </c>
     </row>
     <row r="82" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B82" s="16"/>
-      <c r="C82" s="14" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="13"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="13"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="7" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -3600,22 +3600,22 @@
       </c>
     </row>
     <row r="84" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B84" s="16"/>
-      <c r="C84" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="F84" s="18"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="F84" s="20"/>
       <c r="G84" s="3">
         <v>9999999999</v>
       </c>
-      <c r="H84" s="17">
-        <v>9999999999</v>
-      </c>
-      <c r="I84" s="18"/>
+      <c r="H84" s="19">
+        <v>9999999999</v>
+      </c>
+      <c r="I84" s="20"/>
       <c r="J84" s="3">
         <v>9999999999</v>
       </c>
@@ -3681,15 +3681,186 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="H11:I11"/>
@@ -3714,193 +3885,19 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="16383" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦2人" sheetId="3" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +149,28 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u val="double"/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -228,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,12 +254,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,23 +277,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,7 +617,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
@@ -609,26 +627,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="9.75" customHeight="1">
@@ -640,79 +658,79 @@
         <v>4</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="17" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -731,11 +749,13 @@
       <c r="S6" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="9.75" customHeight="1">
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:B1"/>
@@ -744,8 +764,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="4785"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦2人" sheetId="3" r:id="rId1"/>
@@ -277,31 +277,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -349,6 +349,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>470866</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8812696" y="604631"/>
+          <a:ext cx="3137866" cy="12381"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,7 +661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
@@ -627,47 +682,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="18" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A2" s="13">
+      <c r="A2" s="18">
         <v>9999999999</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:19" ht="9.75" customHeight="1">
       <c r="A3" s="8"/>
@@ -678,12 +733,12 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="9.75" customHeight="1">
       <c r="A4" s="9"/>
@@ -704,33 +759,33 @@
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="9.75" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -768,5 +823,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22920" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦2人" sheetId="3" r:id="rId1"/>
@@ -349,61 +349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>470866</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>120055</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線コネクタ 69"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8812696" y="604631"/>
-          <a:ext cx="3137866" cy="12381"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,7 +617,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
@@ -823,6 +768,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_F1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22860" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="A4縦2人" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>支
 給</t>
@@ -77,6 +77,10 @@
     <t>9999年99月</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -124,13 +128,6 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="IPA明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -158,22 +155,23 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,32 +195,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -243,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,53 +228,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -606,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,159 +583,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="19" width="4.125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
+    <col min="3" max="19" width="4.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1"/>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="13" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="2"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A2" s="18">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B3" s="16">
         <v>9999999999</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
-    <row r="3" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="15" t="s">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
-    <row r="4" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="2"/>
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
+      <c r="D6" s="15"/>
     </row>
-    <row r="6" spans="1:19" ht="9.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16" t="s">
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="9.75" customHeight="1">
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
+    <row r="8" spans="1:26" ht="9.75" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" s="1" customFormat="1" ht="9.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>